--- a/classfiers/bloated/randomForest/smote/bloated-randomForest-smote-results.xlsx
+++ b/classfiers/bloated/randomForest/smote/bloated-randomForest-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9282700421940928</v>
+        <v>0.9262672811059908</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.962800875273523</v>
+        <v>0.9617224880382775</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9992975206611571</v>
+        <v>0.9995544664736021</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9401709401709402</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9691629955947136</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9736881964730066</v>
+        <v>0.9739327015042172</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9863927741736473</v>
+        <v>0.986519254889209</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998595041322315</v>
+        <v>0.9999108932947205</v>
       </c>
     </row>
   </sheetData>
